--- a/LubanTool/Datas/__tables__.xlsx
+++ b/LubanTool/Datas/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24780" windowHeight="14630"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>Area.xlsx</t>
+  </si>
+  <si>
+    <t>guide.TBGuideSet</t>
+  </si>
+  <si>
+    <t>GuideSet</t>
+  </si>
+  <si>
+    <t>引导配置表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -185,7 +194,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,20 +205,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -672,133 +667,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,10 +810,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1140,17 +1135,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.125" style="2" customWidth="1"/>
@@ -1240,7 +1235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="42" spans="1:12">
+    <row r="3" s="1" customFormat="1" ht="42.75" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1348,6 +1343,20 @@
       </c>
       <c r="E9" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/LubanTool/Datas/__tables__.xlsx
+++ b/LubanTool/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>引导配置表.xlsx</t>
+  </si>
+  <si>
+    <t>language.TBLanguage</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>多语言表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1135,16 +1144,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.625" style="2" customWidth="1"/>
@@ -1359,6 +1368,20 @@
         <v>50</v>
       </c>
     </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
